--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,17 +467,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>989.0213581317283</v>
+        <v>937.2665374536721</v>
       </c>
       <c r="C2" t="n">
-        <v>1839.59</v>
+        <v>1803.02</v>
       </c>
       <c r="D2" t="n">
-        <v>1819393.800205546</v>
+        <v>1689910.31235972</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-04 23:28:31.991990</t>
+          <t>2025-05-05 17:28:09.896448</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>374162.448404</v>
+        <v>514998.03737</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>374162.448404</v>
+        <v>514998.03737</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-04 23:28:32.001747</t>
+          <t>2025-05-05 17:28:09.910025</t>
         </is>
       </c>
     </row>
@@ -509,80 +509,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828891.705776</v>
+        <v>785502.856499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999</v>
+        <v>1.0001</v>
       </c>
       <c r="D4" t="n">
-        <v>828808.8166054224</v>
+        <v>785581.4067846498</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-04 23:28:32.393385</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Vanguard S&amp;P 500</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="n">
-        <v>520.7100219726562</v>
-      </c>
-      <c r="D5" t="n">
-        <v>52071.00219726562</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-04 23:28:30.594943</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>iShares Hang Seng TECH</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.05000019073486</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1105.000019073486</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-05-04 23:28:31.145127</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apple Inc</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>205.3500061035156</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20535.00061035156</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-05-04 23:28:31.605650</t>
+          <t>2025-05-05 17:28:10.413325</t>
         </is>
       </c>
     </row>
